--- a/mbs-perturbation/chatty/welm/chatty_welm_lin_results.xlsx
+++ b/mbs-perturbation/chatty/welm/chatty_welm_lin_results.xlsx
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9871794871794872</v>
+        <v>0.9906103286384976</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9956709956709956</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9914529914529915</v>
+        <v>0.9859154929577465</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9870689655172413</v>
+        <v>0.9593301435406697</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7456331877729259</v>
+        <v>0.9806763285024154</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9742489270386266</v>
+        <v>0.9622641509433962</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9412280701754386</v>
+        <v>0.9233716475095785</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9914163090128756</v>
+        <v>0.9905660377358491</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>0.987012987012987</v>
+        <v>0.9980676328502415</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9854260665419463</v>
+        <v>0.9839844096022677</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.5344444444444445</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9313228412299177</v>
+        <v>0.9722891504805811</v>
       </c>
     </row>
   </sheetData>
